--- a/PYTHON/pokemon.xlsx
+++ b/PYTHON/pokemon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P152"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,15 +501,20 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>multipliers</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>weakness</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>next_evolution</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>prev_evolution</t>
         </is>
@@ -575,15 +580,20 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>[1.58]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>['Ivysaur', 'Venusaur']</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -649,15 +659,20 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>[1.2, 1.6]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>['Venusaur']</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>['Bulbasaur']</t>
         </is>
@@ -719,17 +734,18 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>['Bulbasaur', 'Ivysaur']</t>
         </is>
@@ -795,15 +811,20 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>[1.65]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>['Charmeleon', 'Charizard']</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -869,15 +890,20 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>[1.79]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>['Charizard']</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>['Charmander']</t>
         </is>
@@ -939,17 +965,18 @@
           <t>13:34</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Water, Electric, Rock</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>['Charmander', 'Charmeleon']</t>
         </is>
@@ -1015,15 +1042,20 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>[2.1]</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>['Wartortle', 'Blastoise']</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1089,15 +1121,20 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>[1.4]</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>['Blastoise']</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>['Squirtle']</t>
         </is>
@@ -1159,17 +1196,18 @@
           <t>00:06</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>['Squirtle', 'Wartortle']</t>
         </is>
@@ -1235,15 +1273,20 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>[1.05]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>Fire, Flying, Rock</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>['Metapod', 'Butterfree']</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1309,15 +1352,20 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>[3.55, 3.79]</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>Fire, Flying, Rock</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>['Butterfree']</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>['Caterpie']</t>
         </is>
@@ -1379,17 +1427,18 @@
           <t>05:23</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
         <is>
           <t>Fire, Electric, Ice, Flying, Rock</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>['Caterpie', 'Metapod']</t>
         </is>
@@ -1455,15 +1504,20 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>[1.01, 1.09]</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>Fire, Flying, Psychic, Rock</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>['Kakuna', 'Beedrill']</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1529,15 +1583,20 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>[3.01, 3.41]</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Fire, Flying, Psychic, Rock</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>['Beedrill']</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>['Weedle']</t>
         </is>
@@ -1599,17 +1658,18 @@
           <t>04:50</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
         <is>
           <t>Fire, Flying, Psychic, Rock</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>['Weedle', 'Kakuna']</t>
         </is>
@@ -1675,15 +1735,20 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>[1.71, 1.92]</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>['Pidgeotto', 'Pidgeot']</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1749,15 +1814,20 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>[1.79]</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>['Pidgeot']</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>['Pidgey']</t>
         </is>
@@ -1819,17 +1889,18 @@
           <t>01:50</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
         <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>['Pidgey', 'Pidgeotto']</t>
         </is>
@@ -1895,15 +1966,20 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>[2.55, 2.73]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>['Raticate']</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1965,17 +2041,18 @@
           <t>01:56</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>['Rattata']</t>
         </is>
@@ -2041,15 +2118,20 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>[2.66, 2.68]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>['Fearow']</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2111,17 +2193,18 @@
           <t>01:11</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
         <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>['Spearow']</t>
         </is>
@@ -2187,15 +2270,20 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>[2.21, 2.27]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>['Arbok']</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2257,17 +2345,18 @@
           <t>01:50</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
         <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>['Ekans']</t>
         </is>
@@ -2333,15 +2422,20 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>[2.34]</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>['Raichu']</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2403,17 +2497,18 @@
           <t>23:58</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
         <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>['Pikachu']</t>
         </is>
@@ -2479,15 +2574,20 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>[2.45]</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>['Sandslash']</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2549,17 +2649,18 @@
           <t>12:34</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
         <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>['Sandshrew']</t>
         </is>
@@ -2625,15 +2726,20 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>[1.63, 2.48]</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>['Nidorina', 'Nidoqueen']</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2699,15 +2805,20 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>[1.83, 2.48]</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>['Nidoqueen']</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>['Nidoran(Female)']</t>
         </is>
@@ -2769,17 +2880,18 @@
           <t>12:35</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
         <is>
           <t>Water, Ice, Ground, Psychic</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>['Nidoran(Female)', 'Nidorina']</t>
         </is>
@@ -2845,15 +2957,20 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>[1.64, 1.7]</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>['Nidorino', 'Nidoking']</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2919,15 +3036,20 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>[1.83]</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>['Nidoking']</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>['Nidoran(Male)']</t>
         </is>
@@ -2989,17 +3111,18 @@
           <t>12:16</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
         <is>
           <t>Water, Ice, Ground, Psychic</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>['Nidoran(Male)', 'Nidorino']</t>
         </is>
@@ -3065,15 +3188,20 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>[2.03, 2.14]</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>['Clefable']</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3135,17 +3263,18 @@
           <t>03:29</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>['Clefairy']</t>
         </is>
@@ -3211,15 +3340,20 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>[2.74, 2.81]</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>['Ninetales']</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3281,17 +3415,18 @@
           <t>01:32</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
         <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>['Vulpix']</t>
         </is>
@@ -3357,15 +3492,20 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>[1.85]</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>['Wigglytuff']</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3427,17 +3567,18 @@
           <t>12:28</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>['Jigglypuff']</t>
         </is>
@@ -3503,15 +3644,20 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>[2.6, 3.67]</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>Electric, Ice, Psychic, Rock</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>['Golbat']</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3573,17 +3719,18 @@
           <t>02:15</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
         <is>
           <t>Electric, Ice, Psychic, Rock</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>['Zubat']</t>
         </is>
@@ -3649,15 +3796,20 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>[1.5]</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>['Gloom', 'Vileplume']</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3723,15 +3875,20 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>[1.49]</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>['Vileplume']</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>['Oddish']</t>
         </is>
@@ -3793,17 +3950,18 @@
           <t>23:58</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
         <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>['Oddish', 'Gloom']</t>
         </is>
@@ -3869,15 +4027,20 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>[2.02]</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>Fire, Ice, Poison, Flying, Bug, Rock</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>['Parasect']</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3939,17 +4102,18 @@
           <t>01:22</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
         <is>
           <t>Fire, Ice, Poison, Flying, Bug, Rock</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>['Paras']</t>
         </is>
@@ -4015,15 +4179,20 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
+          <t>[1.86, 1.9]</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
           <t>Fire, Flying, Psychic, Rock</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>['Venomoth']</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4085,17 +4254,18 @@
           <t>23:40</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
         <is>
           <t>Fire, Flying, Psychic, Rock</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>['Venonat']</t>
         </is>
@@ -4161,15 +4331,20 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
+          <t>[2.69]</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>['Dugtrio']</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4231,17 +4406,18 @@
           <t>12:37</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
         <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>['Diglett']</t>
         </is>
@@ -4307,15 +4483,20 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
+          <t>[1.98]</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>['Persian']</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4377,17 +4558,18 @@
           <t>02:44</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>['Meowth']</t>
         </is>
@@ -4453,15 +4635,20 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
+          <t>[2.27]</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>['Golduck']</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4523,17 +4710,18 @@
           <t>23:06</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
         <is>
           <t>['Psyduck']</t>
         </is>
@@ -4599,15 +4787,20 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
+          <t>[2.17, 2.28]</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>['Primeape']</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4669,17 +4862,18 @@
           <t>12:33</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
         <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
         <is>
           <t>['Mankey']</t>
         </is>
@@ -4745,15 +4939,20 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
+          <t>[2.31, 2.36]</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>['Arcanine']</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4815,17 +5014,18 @@
           <t>03:11</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
         <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
         <is>
           <t>['Growlithe']</t>
         </is>
@@ -4891,15 +5091,20 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
+          <t>[1.72, 1.73]</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>['Poliwhirl', 'Poliwrath']</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4965,15 +5170,20 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
+          <t>[1.95]</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>['Poliwrath']</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>['Poliwag']</t>
         </is>
@@ -5035,17 +5245,18 @@
           <t>01:32</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
         <is>
           <t>Electric, Grass, Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
         <is>
           <t>['Poliwag', 'Poliwhirl']</t>
         </is>
@@ -5111,15 +5322,20 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
+          <t>[1.36, 1.95]</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>['Kadabra', 'Alakazam']</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5185,15 +5401,20 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
+          <t>[1.4]</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>['Alakazam']</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>['Abra']</t>
         </is>
@@ -5255,17 +5476,18 @@
           <t>12:33</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
         <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
         <is>
           <t>['Abra', 'Kadabra']</t>
         </is>
@@ -5331,15 +5553,20 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
+          <t>[1.64, 1.65]</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>['Machoke', 'Machamp']</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5405,15 +5632,20 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
+          <t>[1.7]</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>['Machamp']</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>['Machop']</t>
         </is>
@@ -5475,17 +5707,18 @@
           <t>02:55</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
         <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
         <is>
           <t>['Machop', 'Machoke']</t>
         </is>
@@ -5551,15 +5784,20 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
+          <t>[1.57]</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>['Weepinbell', 'Victreebel']</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5625,15 +5863,20 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
+          <t>[1.59]</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>['Victreebel']</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>['Bellsprout']</t>
         </is>
@@ -5695,17 +5938,18 @@
           <t>12:19</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
         <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
         <is>
           <t>['Bellsprout', 'Weepinbell']</t>
         </is>
@@ -5771,15 +6015,20 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
+          <t>[2.52]</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
           <t>Electric, Ground, Psychic</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>['Tentacruel']</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5841,17 +6090,18 @@
           <t>23:36</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
         <is>
           <t>Electric, Ground, Psychic</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
         <is>
           <t>['Tentacool']</t>
         </is>
@@ -5917,15 +6167,20 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
+          <t>[1.75, 1.76]</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>['Graveler', 'Golem']</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5991,15 +6246,20 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
+          <t>[1.64, 1.72]</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>['Golem']</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>['Geodude']</t>
         </is>
@@ -6061,17 +6321,18 @@
           <t>12:16</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
         <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
         <is>
           <t>['Geodude', 'Graveler']</t>
         </is>
@@ -6137,15 +6398,20 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
+          <t>[1.48, 1.5]</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>['Rapidash']</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6207,17 +6473,18 @@
           <t>04:00</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
         <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
         <is>
           <t>['Ponyta']</t>
         </is>
@@ -6283,15 +6550,20 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
+          <t>[2.21]</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
           <t>Electric, Grass, Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>['Slowbro']</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6353,17 +6625,18 @@
           <t>02:56</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
         <is>
           <t>Electric, Grass, Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
         <is>
           <t>['Slowpoke']</t>
         </is>
@@ -6429,15 +6702,20 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
+          <t>[2.16, 2.17]</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
           <t>Fire, Water, Ground</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>['Magneton']</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6499,17 +6777,18 @@
           <t>15:25</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
         <is>
           <t>Fire, Water, Ground</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
         <is>
           <t>['Magnemite']</t>
         </is>
@@ -6571,17 +6850,18 @@
           <t>01:09</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
         <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6647,15 +6927,20 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
+          <t>[2.19, 2.24]</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>['Dodrio']</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6717,17 +7002,18 @@
           <t>02:12</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
         <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
         <is>
           <t>['Doduo']</t>
         </is>
@@ -6793,15 +7079,20 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
+          <t>[1.04, 1.96]</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t>['Dewgong']</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -6863,17 +7154,18 @@
           <t>06:04</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
         <is>
           <t>Electric, Grass, Fighting, Rock</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
         <is>
           <t>['Seel']</t>
         </is>
@@ -6939,15 +7231,20 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
+          <t>[2.44]</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>['Muk']</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -7009,17 +7306,18 @@
           <t>01:28</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
         <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
         <is>
           <t>['Grimer']</t>
         </is>
@@ -7085,15 +7383,20 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
+          <t>[2.65]</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>['Cloyster']</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -7155,17 +7458,18 @@
           <t>02:33</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
         <is>
           <t>Electric, Grass, Fighting, Rock</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
         <is>
           <t>['Shellder']</t>
         </is>
@@ -7231,15 +7535,20 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
+          <t>[1.78]</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
           <t>Ground, Psychic, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>['Haunter', 'Gengar']</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -7305,15 +7614,20 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
+          <t>[1.56, 1.8]</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
           <t>Ground, Psychic, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>['Gengar']</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>['Gastly']</t>
         </is>
@@ -7375,17 +7689,18 @@
           <t>03:55</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
         <is>
           <t>Ground, Psychic, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
         <is>
           <t>['Gastly', 'Haunter']</t>
         </is>
@@ -7447,17 +7762,18 @@
           <t>01:18</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
         <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -7523,15 +7839,20 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
+          <t>[2.08, 2.09]</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>['Hypno']</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -7593,17 +7914,18 @@
           <t>02:17</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
         <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
         <is>
           <t>['Drowzee']</t>
         </is>
@@ -7669,15 +7991,20 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
+          <t>[2.36, 2.4]</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>['Kingler']</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr">
+      <c r="Q99" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -7739,17 +8066,18 @@
           <t>03:44</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
         <is>
           <t>['Krabby']</t>
         </is>
@@ -7815,15 +8143,20 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
+          <t>[2.01, 2.02]</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t>['Electrode']</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr">
+      <c r="Q101" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -7885,17 +8218,18 @@
           <t>04:10</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
         <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
         <is>
           <t>['Voltorb']</t>
         </is>
@@ -7961,15 +8295,20 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
+          <t>[2.7, 3.18]</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
           <t>Fire, Ice, Poison, Flying, Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="P103" t="inlineStr">
         <is>
           <t>['Exeggutor']</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
+      <c r="Q103" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -8031,17 +8370,18 @@
           <t>12:34</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr">
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
         <is>
           <t>Fire, Ice, Poison, Flying, Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
         <is>
           <t>['Exeggcute']</t>
         </is>
@@ -8107,15 +8447,20 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
+          <t>[1.67]</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
+      <c r="P105" t="inlineStr">
         <is>
           <t>['Marowak']</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr">
+      <c r="Q105" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -8177,17 +8522,18 @@
           <t>03:59</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
         <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
         <is>
           <t>['Cubone']</t>
         </is>
@@ -8249,17 +8595,18 @@
           <t>03:59</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr">
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr">
         <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -8321,17 +8668,18 @@
           <t>05:58</t>
         </is>
       </c>
-      <c r="N108" t="inlineStr">
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
         <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -8393,17 +8741,18 @@
           <t>02:46</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr">
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -8469,15 +8818,20 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
+          <t>[1.11]</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr">
+      <c r="P110" t="inlineStr">
         <is>
           <t>['Weezing']</t>
         </is>
       </c>
-      <c r="P110" t="inlineStr">
+      <c r="Q110" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -8539,17 +8893,18 @@
           <t>12:17</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr">
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr">
         <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
         <is>
           <t>['Koffing']</t>
         </is>
@@ -8615,15 +8970,20 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
+          <t>[1.91]</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr">
+      <c r="P112" t="inlineStr">
         <is>
           <t>['Rhydon']</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr">
+      <c r="Q112" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -8685,17 +9045,18 @@
           <t>05:50</t>
         </is>
       </c>
-      <c r="N113" t="inlineStr">
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr">
         <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
         <is>
           <t>['Rhyhorn']</t>
         </is>
@@ -8757,17 +9118,18 @@
           <t>04:46</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr">
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -8829,17 +9191,18 @@
           <t>23:13</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr">
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr">
         <is>
           <t>Fire, Ice, Poison, Flying, Bug</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -8901,17 +9264,18 @@
           <t>02:40</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr">
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -8977,15 +9341,20 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
+          <t>[2.23]</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O117" t="inlineStr">
+      <c r="P117" t="inlineStr">
         <is>
           <t>['Seadra']</t>
         </is>
       </c>
-      <c r="P117" t="inlineStr">
+      <c r="Q117" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9047,17 +9416,18 @@
           <t>03:18</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr">
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
         <is>
           <t>['Horsea']</t>
         </is>
@@ -9123,15 +9493,20 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
+          <t>[2.15, 2.2]</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O119" t="inlineStr">
+      <c r="P119" t="inlineStr">
         <is>
           <t>['Seaking']</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
+      <c r="Q119" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9193,17 +9568,18 @@
           <t>05:21</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
         <is>
           <t>['Goldeen']</t>
         </is>
@@ -9269,15 +9645,20 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
+          <t>[2.38, 2.41]</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr">
+      <c r="P121" t="inlineStr">
         <is>
           <t>['Starmie']</t>
         </is>
       </c>
-      <c r="P121" t="inlineStr">
+      <c r="Q121" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9339,17 +9720,18 @@
           <t>06:57</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr">
         <is>
           <t>Electric, Grass, Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
         <is>
           <t>['Staryu']</t>
         </is>
@@ -9411,17 +9793,18 @@
           <t>01:51</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
         <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9483,17 +9866,18 @@
           <t>05:43</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr">
         <is>
           <t>Fire, Electric, Ice, Flying, Rock</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9555,17 +9939,18 @@
           <t>05:41</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr">
         <is>
           <t>Fire, Bug, Rock, Ghost, Dark, Steel</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9627,17 +10012,18 @@
           <t>04:28</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr">
         <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9699,17 +10085,18 @@
           <t>20:36</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr">
         <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9771,17 +10158,18 @@
           <t>03:25</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr">
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
         <is>
           <t>Fire, Flying, Rock</t>
         </is>
       </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9843,17 +10231,18 @@
           <t>00:37</t>
         </is>
       </c>
-      <c r="N129" t="inlineStr">
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9919,15 +10308,20 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
+          <t>[10.1, 11.8]</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="P130" t="inlineStr">
         <is>
           <t>['Gyarados']</t>
         </is>
       </c>
-      <c r="P130" t="inlineStr">
+      <c r="Q130" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -9989,17 +10383,18 @@
           <t>02:15</t>
         </is>
       </c>
-      <c r="N131" t="inlineStr">
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
         <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
         <is>
           <t>['Magikarp']</t>
         </is>
@@ -10061,17 +10456,18 @@
           <t>08:59</t>
         </is>
       </c>
-      <c r="N132" t="inlineStr">
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr">
         <is>
           <t>Electric, Grass, Fighting, Rock</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -10133,17 +10529,18 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr">
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -10209,15 +10606,20 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
+          <t>[2.02, 2.64]</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O134" t="inlineStr">
+      <c r="P134" t="inlineStr">
         <is>
           <t>['Vaporeon', 'Jolteon', 'Flareon']</t>
         </is>
       </c>
-      <c r="P134" t="inlineStr">
+      <c r="Q134" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -10279,17 +10681,18 @@
           <t>10:54</t>
         </is>
       </c>
-      <c r="N135" t="inlineStr">
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
         <is>
           <t>['Eevee']</t>
         </is>
@@ -10351,17 +10754,18 @@
           <t>02:30</t>
         </is>
       </c>
-      <c r="N136" t="inlineStr">
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
         <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
         <is>
           <t>['Eevee']</t>
         </is>
@@ -10423,17 +10827,18 @@
           <t>07:02</t>
         </is>
       </c>
-      <c r="N137" t="inlineStr">
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr">
         <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
         <is>
           <t>['Eevee']</t>
         </is>
@@ -10495,17 +10900,18 @@
           <t>02:49</t>
         </is>
       </c>
-      <c r="N138" t="inlineStr">
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -10571,15 +10977,20 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
+          <t>[2.12]</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
           <t>Electric, Grass, Fighting, Ground</t>
         </is>
       </c>
-      <c r="O139" t="inlineStr">
+      <c r="P139" t="inlineStr">
         <is>
           <t>['Omastar']</t>
         </is>
       </c>
-      <c r="P139" t="inlineStr">
+      <c r="Q139" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -10641,17 +11052,18 @@
           <t>05:04</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr">
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr">
         <is>
           <t>Electric, Grass, Fighting, Ground</t>
         </is>
       </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
         <is>
           <t>['Omanyte']</t>
         </is>
@@ -10717,15 +11129,20 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
+          <t>[1.97, 2.37]</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
           <t>Electric, Grass, Fighting, Ground</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr">
+      <c r="P141" t="inlineStr">
         <is>
           <t>['Kabutops']</t>
         </is>
       </c>
-      <c r="P141" t="inlineStr">
+      <c r="Q141" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -10787,17 +11204,18 @@
           <t>23:40</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
         <is>
           <t>Electric, Grass, Fighting, Ground</t>
         </is>
       </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
         <is>
           <t>['Kabuto']</t>
         </is>
@@ -10859,17 +11277,18 @@
           <t>23:40</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr">
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr">
         <is>
           <t>Water, Electric, Ice, Rock, Steel</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -10931,17 +11350,18 @@
           <t>23:40</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr">
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -11003,17 +11423,18 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr">
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr">
         <is>
           <t>Fire, Electric, Rock, Steel</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -11075,17 +11496,18 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr">
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr">
         <is>
           <t>Ice, Rock</t>
         </is>
       </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -11147,17 +11569,18 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr">
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
         <is>
           <t>Water, Electric, Rock</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -11223,15 +11646,20 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
+          <t>[1.83, 1.84]</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
           <t>Ice, Dragon, Fairy</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr">
+      <c r="P148" t="inlineStr">
         <is>
           <t>['Dragonair', 'Dragonite']</t>
         </is>
       </c>
-      <c r="P148" t="inlineStr">
+      <c r="Q148" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -11297,15 +11725,20 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
+          <t>[2.05]</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
           <t>Ice, Dragon, Fairy</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr">
+      <c r="P149" t="inlineStr">
         <is>
           <t>['Dragonite']</t>
         </is>
       </c>
-      <c r="P149" t="inlineStr">
+      <c r="Q149" t="inlineStr">
         <is>
           <t>['Dratini']</t>
         </is>
@@ -11367,17 +11800,18 @@
           <t>23:38</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr">
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr">
         <is>
           <t>Ice, Rock, Dragon, Fairy</t>
         </is>
       </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
         <is>
           <t>['Dratini', 'Dragonair']</t>
         </is>
@@ -11439,17 +11873,18 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr">
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr">
         <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -11511,17 +11946,18 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr">
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
         <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
